--- a/output/data/ene_unempl.xlsx
+++ b/output/data/ene_unempl.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,233 +360,133 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ano</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>unempl</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ano</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>419463</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1998</t>
         </is>
       </c>
+      <c r="B2">
+        <v>174.2</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>526878</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1999</t>
         </is>
       </c>
+      <c r="B3">
+        <v>179.23</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>490386</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
+      <c r="B4">
+        <v>183.99</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>476923</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2001</t>
         </is>
       </c>
+      <c r="B5">
+        <v>182.32</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>466339</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2002</t>
         </is>
       </c>
+      <c r="B6">
+        <v>182.78</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>454267</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2003</t>
         </is>
       </c>
+      <c r="B7">
+        <v>179.08</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>491756</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
+      <c r="B8">
+        <v>173.12</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>438369</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
+      <c r="B9">
+        <v>174.32</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>411257</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
+      <c r="B10">
+        <v>157.18</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>510412</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
+      <c r="B11">
+        <v>153.54</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>536590</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
+      <c r="B12">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>623693</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>1492251.286986145</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>1554261.9808381</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>1414044.423634614</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>1361440.968839638</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>1359496.870414519</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>1376460.674861521</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>1373886.660726923</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>1418517.865062182</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>1433953.745386895</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>1537766.450632947</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B13">
+        <v>153.02</v>
       </c>
     </row>
   </sheetData>
